--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,333 @@
   </si>
   <si>
     <t xml:space="preserve"> Ï íïñå, ðïêíé íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, you ask why we are here\nall the time...?[K] It is because…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We learn much from the sea.\nTo be deep and expansive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t think that we\'re shirking\nour work. That isn\'t our intention!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We insist that you understand\nus clearly on that point!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, ты хочешь узнать, почему\nмы всё время находимся здесь?..[K]\nЭто потому что...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы многому учимся у моря.\nУчимся быть глубокими и огромными.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не думай, что мы отлыниваем от\nработы. Это не наша цель!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы хотим, чтобы тебе было это\nясно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, óú öïœåšû ôèîàóû, ðïœåíô\níú âòæ âñåíÿ îàöïäéíòÿ èäåòû?..[K]\nÜóï ðïóïíô œóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú íîïãïíô ôœéíòÿ ô íïñÿ.\nÔœéíòÿ áúóû ãìôáïëéíé é ïãñïíîúíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå äôíàê, œóï íú ïóìúîéâàåí ïó\nñàáïóú. Üóï îå îàšà øåìû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú öïóéí, œóïáú óåáå áúìï üóï\nÿòîï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, Dad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why did you call me out here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See?[K] The sea is vast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Um, yes... But why are you\ntelling me this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m supposed to be working, Dad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If I don\'t go back soon, I\'ll get\nan earful from [CS:N]Loudred[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ll be scolded?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why let such a paltry matter\ncloud your thoughts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broaden your perspective...[K]\nLike the sea before you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know what that means!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m going back to the guild.[K]\nI want to be chosen for the expedition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dad, you should quit wasting\ntime here and get back to work.[K] See you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сын мой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, Пап?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зачем ты меня сюда позвал?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видишь?[K] Море широко.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм, да... Но почему ты мне это\nговоришь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пап, мне нужно работать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если я не вернусь, на меня\nнаорёт [CS:N]Лаудред[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тебя накажут?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зачем вообще беспокоиться о\nтаких мелочах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смотри на мир шире...[K] Как море,\nчто находится перед тобой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю что это значит!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я отправляюсь обратно в гильдию.[K]\nЯ хочу, чтобы меня взяли в экспедицию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пап, хватит тратить время\nвпустую и давай тоже за работу.[K] Увидимся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òúî íïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, Ðàð?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàœåí óú íåîÿ òýäà ðïèâàì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéšû?[K] Íïñå šéñïëï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí, äà... Îï ðïœåíô óú íîå üóï\nãïâïñéšû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðàð, íîå îôçîï ñàáïóàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ÿ îå âåñîôòû, îà íåîÿ\nîàïñæó [CS:N]Ìàôäñåä[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåáÿ îàëàçôó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàœåí âïïáþå áåòðïëïéóûòÿ ï\nóàëéö íåìïœàö?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òíïóñé îà íéñ šéñå...[K] Ëàë íïñå,\nœóï îàöïäéóòÿ ðåñåä óïáïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý œóï üóï èîàœéó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïóðñàâìÿýòû ïáñàóîï â ãéìûäéý.[K]\nŸ öïœô, œóïáú íåîÿ âèÿìé â üëòðåäéøéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðàð, öâàóéó óñàóéóû âñåíÿ\nâðôòóôý é äàâàê óïçå èà ñàáïóô.[K] Ôâéäéíòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, for crying out loud...[K] I wish\nyou hadn\'t seen that.</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um0702.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raising a child is the hardest\nthing I\'ve ever done...[K] Aha-ha-ha…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I\'d like to imagine that my\nson will one day understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The way that we have chosen\nto live…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, ради всего святого...[K]\nХотел бы я, чтобы вы этого не видели.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Растить ребёнка это самое\nсложное, что я когда-либо делал...[K]\nХа-ха-ха...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я надеюсь, что однажды мой\nсын всё поймёт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То, как мы выбираем наш путь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ñàäé âòåãï òâÿóïãï...[K]\nÖïóåì áú ÿ, œóïáú âú üóïãï îå âéäåìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàòóéóû ñåáæîëà üóï òàíïå\nòìïçîïå, œóï ÿ ëïãäà-ìéáï äåìàì...[K]\nÖà-öà-öà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ îàäåýòû, œóï ïäîàçäú íïê\nòúî âòæ ðïêíæó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï, ëàë íú âúáéñàåí îàš ðôóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]The expedition is coming up\nquickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It would be nice to see you two\nchosen as members too.</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um0703.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Oh?[K] As for us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It goes without saying that we\'ll\nbe among the chosen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What...[K] What do you take us\nfor? Grr-rumble…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How very insulting of you![K]\nGrrr-rumble…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Скоро начнётся экспедиция.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будет здорово, если вас двоих\nвозьмут туда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Что?[K] Возьмут ли нас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас выберут без всяких\nразговоров!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что...[K] За кого вы нас\nпринимаете?[K] Бу-бу-бу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как оскорбительно![K] Бу-бу-бу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Òëïñï îàœîæóòÿ üëòðåäéøéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäåó èäïñïâï, åòìé âàò äâïéö\nâïèûíôó óôäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Œóï?[K] Âïèûíôó ìé îàò?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò âúáåñôó áåè âòÿëéö\nñàèãïâïñïâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï...[K] Èà ëïãï âú îàò\nðñéîéíàåóå?[K] Áô-áô-áô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ïòëïñáéóåìûîï![K] Áô-áô-áô...</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] We\'ve come to bid you\na brief farewell!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have been chosen for the\nexpedition! (Though that was a given.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We therefore must take leave\nof this place for a short while!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However...[K] When we return…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You will see that we have grown\nin every way!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Look forward to that day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] O sea!!![K]\nO vaaaast sea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Gasp-gasp…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, море![K] Мы хотим ненадолго с\nтобой попрощаться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас взяли в экспедицию!\n(Хотя это было само собой разумеющимся.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отныне мы должны временно\nпокинуть эти края!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Однако...[K] Когда мы вернёмся...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жди этого дня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море![K] О море!!![K]\nО бескрааааайнее море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ухх-ухх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, íïñå![K] Íú öïóéí îåîàäïìãï ò\nóïáïê ðïðñïþàóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò âèÿìé â üëòðåäéøéý!\n(Öïóÿ üóï áúìï òàíï òïáïê ñàèôíåýþéíòÿ.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóîúîå íú äïìçîú âñåíåîîï\nðïëéîôóû üóé ëñàÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïäîàëï...[K] Ëïãäà íú âåñîæíòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çäé üóïãï äîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå![K] Ï íïñå!!![K]\nÏ áåòëñàààààêîåå íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ôöö-ôöö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты увидишь, как мы во всех\nсмыслах вырастем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ôâéäéšû, ëàë íú âï âòåö\nòíúòìàö âúñàòóåí!</t>
   </si>
 </sst>
 </file>
@@ -183,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -210,6 +537,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,17 +963,569 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
         <v>895</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>829</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>832</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>842</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>845</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>848</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>851</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>854</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4">
+        <v>712</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>721</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>724</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>729</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>742</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>745</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>757</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>762</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>765</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>768</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>781</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>784</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8">
+        <v>787</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4">
+        <v>675</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>678</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>681</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8">
+        <v>684</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="4">
+        <v>622</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>625</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>636</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>641</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>649</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8">
+        <v>652</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="4">
+        <v>574</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>577</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>580</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>583</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>586</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>589</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>596</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>603</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -424,6 +424,114 @@
   </si>
   <si>
     <t xml:space="preserve"> Óú ôâéäéšû, ëàë íú âï âòåö\nòíúòìàö âúñàòóåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] We have returned!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have returned from the\nexpedition! We have learned and grown!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How we have grown...[K] Bear\nwitness to it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море![K] Мы вернулись!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы вернулись из экспедиции!\nМы многому научились и возвысились!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как мы выросли...[K] Узри же нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, море! О, море!!![K]\nО, бескрааааайнее море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå![K] Íú âåñîôìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âåñîôìéòû éè üëòðåäéøéé!\nÍú íîïãïíô îàôœéìéòû é âïèâúòéìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë íú âúñïòìé...[K] Ôèñé çå îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, íïñå! Ï, íïñå!!![K]\nÏ, áåòëñàààààêîåå íïñå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um1102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] Hear us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have met a Pokémon that\ninspires us deeply!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A great Pokémon that goes by\nthe name of [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea! The world is huge![K]\nAnd there are Pokémon beyond number!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our meager knowledge and\nexperience is no match for the great\n[CS:N]Dusknoir[CR]\'s...[K] However...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We will...[K]one day...[K]be like him…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Woooaaah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море![K] Услышь нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы встретили Покемона, дарующего\nвдохновение!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море! Мир огромен![K] И Покемонов\nв нём не счесть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Однажды...[K] Мы станем...[K]\nКак он...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оооооооо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Охх-охх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå![K] Ôòìúšû îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âòóñåóéìé Ðïëåíïîà, äàñôýþåãï\nâäïöîïâåîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå! Íéñ ïãñïíåî![K] É Ðïëåíïîïâ\nâ îæí îå òœåòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïäîàçäú...[K] Íú òóàîåí...[K]\nËàë ïî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïïïïïï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ïöö-ïöö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Великого Покемона, имя которому\n[CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наши жалкие знания и опыт не\nсравнятся с теми, что есть у [CS:N]Даскнуара[CR]...\nОднако!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšé çàìëéå èîàîéÿ é ïðúó îå\nòñàâîÿóòÿ ò óåíé, œóï åòóû ô [CS:N]Äàòëîôàñà[CR]...\nÏäîàëï!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåìéëïãï Ðïëåíïîà, éíÿ ëïóïñïíô\n[CS:N]Äàòëîôàñ[CR]!</t>
   </si>
 </sst>
 </file>
@@ -822,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,17 +1623,207 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8">
         <v>603</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="10" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>535</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>538</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>541</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>548</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8">
+        <v>555</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="4">
+        <v>479</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="4">
+        <v>482</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>485</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>488</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>491</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>494</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>501</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>515</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Обычные фразы" sheetId="1" r:id="rId1"/>
+    <sheet name="Особые события" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="339">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -532,6 +533,510 @@
   </si>
   <si>
     <t xml:space="preserve"> Âåìéëïãï Ðïëåíïîà, éíÿ ëïóïñïíô\n[CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have given a topic much\nthought![K] How we can reach the great\n[CS:N]Dusknoir[CR]\'s lofty standards?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And...[K]after soul-searching…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arrived at a single conclusion!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We will...[K]leave the guild to go\non a journey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We wish to travel the world\nand experience what it has to offer!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On a path of self-discovery![K]\nWait! Do I mean paths of self-discovery?[K]\nOr a path of self-discoveries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea! What say you?![K]\nGive us your reply!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Answer us![K]\nO vaaaast sea!</t>
+  </si>
+  <si>
+    <t>[CN]SPLAAAASH…</t>
+  </si>
+  <si>
+    <t>[CN]SPLOOOOSH…</t>
+  </si>
+  <si>
+    <t>[CN]SPLOOOOSH...SPLAAAASH!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] You will allow it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Th-thank you, great sea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...And that\'s the way of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We will leave on our\njourney soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I trust you will pick up the slack\nin our absence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must return to the guild and\nprepare for our journey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Farewell!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы долго были в раздумьях![K]\nКак мы можем постичь высоких стандартов\nвеликого [CS:N]Даскнуара[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И...[K]\nПосле долгого самокопания...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...мы приняли решение!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы...[K] Покинем гильдию и\nотправимся в приключение!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы желаем путешествовать и брать\nот жизни всё, что она нам даст!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы встанем на путь самопознания![K]\nНет! Точнее, на пути самопознания?[K]\nИли на путь самопознаний?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море! Что скажешь ты?![K] Дай нам\nсвой ответ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ответь нам![K] О бескраааайнее\nморе!</t>
+  </si>
+  <si>
+    <t>[CN]ШШШШШшшшш...</t>
+  </si>
+  <si>
+    <t>[CN]ШШШШШшшшш... ШШШШШШШШШШ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, море![K] Ты дало дозволение!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-спасибо тебе, бескрайнее море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Да будет так.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро мы отправимся в путь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В своё отсутствие я поручаю вам\nсвои дела.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны вернуться в гильдию\nи собраться в путь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прощайте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìãï áúìé â ñàèäôíûÿö![K]\nËàë íú íïçåí ðïòóéœû âúòïëéö òóàîäàñóïâ\nâåìéëïãï [CS:N]Äàòëîôàñà[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É...[K]\nÐïòìå äïìãïãï òàíïëïðàîéÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...íú ðñéîÿìé ñåšåîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú...[K] Ðïëéîåí ãéìûäéý é\nïóðñàâéíòÿ â ðñéëìýœåîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú çåìàåí ðôóåšåòóâïâàóû é áñàóû\nïó çéèîé âòæ, œóï ïîà îàí äàòó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âòóàîåí îà ðôóû òàíïðïèîàîéÿ![K]\nÎåó! Óïœîåå, îà ðôóé òàíïðïèîàîéÿ?[K]\nÉìé îà ðôóû òàíïðïèîàîéê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå! Œóï òëàçåšû óú?![K] Äàê îàí\nòâïê ïóâåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóâåóû îàí![K] Ï áåòëñààààêîåå\níïñå!</t>
+  </si>
+  <si>
+    <t>[CN]ŠŠŠŠŠšššš...</t>
+  </si>
+  <si>
+    <t>[CN]ŠŠŠŠŠšššš... ŠŠŠŠŠŠŠŠŠŠ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, íïñå![K] Óú äàìï äïèâïìåîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò-òðàòéáï óåáå, áåòëñàêîåå íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Äà áôäåó óàë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï íú ïóðñàâéíòÿ â ðôóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òâïæ ïóòôóòóâéå ÿ ðïñôœàý âàí\nòâïé äåìà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú âåñîôóûòÿ â ãéìûäéý\né òïáñàóûòÿ â ðôóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïþàêóå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um1301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must postpone our journey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must participate in the\ncapture of [CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We will...[K] We will capture\n[CS:N]Grovyle[CR] without fail!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Though it is frightening...[K]\nWe will do our best!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We need encouragement![K]\nO vaaaast sea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны отложить наше\nпутешествие!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны принять участие в\nпоимке [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы...[K] Мы обязательно поймаем\n[CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть это нас страшит...[K]\nНо мы сделаем всё возможное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужна поддержка![K]\nО бескрааааайнее море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú ïóìïçéóû îàšå\nðôóåšåòóâéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú ðñéîÿóû ôœàòóéå â\nðïéíëå [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú...[K] Íú ïáÿèàóåìûîï ðïêíàåí\n[CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû üóï îàò òóñàšéó...[K]\nÎï íú òäåìàåí âòæ âïèíïçîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîà ðïääåñçëà![K]\nÏ áåòëñàààààêîåå íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our journey has been delayed![K]\nAnd our effort to capture [CS:N]Grovyle[CR] has also\nbeen postponed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In all truth, \"postponed\" isn\'t the\nright word for the latter.[K] The great [CS:N]Dusknoir[CR]\nwill handle the capture by himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a little difficult, but\nunderstand us![K] O sea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наше путешествие откладывается![K]\nИ наши усилия по поимке [CS:N]Гровайла[CR] также\nотложены!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это несколько непросто, но\nпойми нас![K] О море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšå ðôóåšåòóâéå ïóëìàäúâàåóòÿ![K]\nÉ îàšé ôòéìéÿ ðï ðïéíëå [CS:N]Ãñïâàêìà[CR] óàëçå\nïóìïçåîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îåòëïìûëï îåðñïòóï, îï\nðïêíé îàò![K] Ï íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðï ðñàâäå ãïâïñÿ, \"ïóìïçåîú\" îå\nòïâòåí âåñîïå òìïâï.[K] Âåìéëéê [CS:N]Äàòëîôàñ[CR] òàí\nèàêíæóòÿ ðïéíëïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> По правде говоря, \"отложены\" не\nсовсем верное слово.[K] Великий [CS:N]Даскнуар[CR] сам\nзаймётся поимкой.</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/m00p0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] We call out to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are frustrated with our\ninsignificant selves!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is nothing we want more\nthan to capture that [CS:N]Grovyle[CR] thief on our own!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But that is denied to us! Every\nday, we must toil away at our dull job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are so...[K] We are very…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re extremely frustrated!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are we to do?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Answer, O mighty sea![K] Tell us\nwhat to do!</t>
+  </si>
+  <si>
+    <t>[CN]SPLOOSH...SPLASH!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] O sea![K] Whatever did\nyou just say, O sea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What...[K] What did you say?!</t>
+  </si>
+  <si>
+    <t>[CN]...[K]YOUR...DUTY…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh...[K] Yes...?</t>
+  </si>
+  <si>
+    <t>[CN]...[K]DO YOUR DUTY…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...?!</t>
+  </si>
+  <si>
+    <t>[CN]NO MORE BELLYACHING![K]\n[CN]GO DO YOUR DUTY!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waaaah! S-s-sorry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, [CS:N]Diglett[CR].[K] That\'s what you\nwanted me to do, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes. Exactly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your voice carries so well,\n[CS:N]Loudred[CR]. It worked perfectly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much for this,\n[CS:N]Loudred[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But, wow...[K]pulling a stunt like\nthat on your own dad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re sure you did the right\nthing? I\'m serious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, I\'m certain.[K] It\'s about time\nmy dad got over this and went back to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He needed a jolt like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W-well now, you\'re sure tough\nas a rock when it comes to your family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if you\'re OK with it,\nI\'m glad to have helped!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you![K] We should get back\nto our own sentry jobs, [CS:N]Loudred[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море![K] Мы взываем к тебе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы недовольны своей\nнезначительностью!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы возжелали сами поймать\n[CS:N]Гровайла[CR], похитителя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но нам запретили! Каждый день\nмы должны прозябать на нашей скучной\nработе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы так...[K] Мы очень...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы невероятно раздражены!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что же нам делать?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ответь, о могучее море![K] Скажи\nнам, что делать!</t>
+  </si>
+  <si>
+    <t>[CN]Ш-Ш-Ш-ш-ш-ш...</t>
+  </si>
+  <si>
+    <t>[CN]Ш-Ш-Ш-ш-ш-ш... ПЛЮХ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] О море![K] Что ты сказало\nмне, о море?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что...[K] Что ты говоришь?!</t>
+  </si>
+  <si>
+    <t>[CN]...[K]ТВОЙ...[K]ДОЛГ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм...[K] Да?..</t>
+  </si>
+  <si>
+    <t>[CN]...[K]ДЕЛАЙ, ЧТО ДОЛЖЕН...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но?!.</t>
+  </si>
+  <si>
+    <t>[CN]ХВАТИТ НЫТЬ![K]\n[CN]ЗА РАБОТУ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ааааа! П-п-прости меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, [CS:N]Диглетт[CR].[K] Этого ты от меня\nхотел, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да. Всё верно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твой голос очень подходит,\n[CS:N]Лаудред[CR]. Он сработал как надо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо тебе огромное, [CS:N]Лаудред[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, вау...[K] Так поступать со\nсвоим отцом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уверен, что правильно поступил?\nЯ не шучу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, уверен.[K] Моему отцу давно\nпора взять себя в руки и начать работать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Его нужно было слегка к этому\nподтолкнуть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Н-ну и ну, когда дело касается\nтвоей семьи, ты становишься словно\nкремень!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если ты не против такого,\nя рад что помог тебе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо![K] Вернёмся к нашей\nработе стражами, [CS:N]Лаудред[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå![K] Íú âèúâàåí ë óåáå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îåäïâïìûîú òâïåê\nîåèîàœéóåìûîïòóûý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âïèçåìàìé òàíé ðïêíàóû\n[CS:N]Ãñïâàêìà[CR], ðïöéóéóåìÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàí èàðñåóéìé! Ëàçäúê äåîû\níú äïìçîú ðñïèÿáàóû îà îàšåê òëôœîïê\nñàáïóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óàë...[K] Íú ïœåîû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îåâåñïÿóîï ñàèäñàçåîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï çå îàí äåìàóû?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóâåóû, ï íïãôœåå íïñå![K] Òëàçé\nîàí, œóï äåìàóû!</t>
+  </si>
+  <si>
+    <t>[CN]Š-Š-Š-š-š-š...</t>
+  </si>
+  <si>
+    <t>[CN]Š-Š-Š-š-š-š... ÐÌÝÖ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Ï íïñå![K] Œóï óú òëàèàìï\níîå, ï íïñå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï...[K] Œóï óú ãïâïñéšû?!</t>
+  </si>
+  <si>
+    <t>[CN]...[K]ÓÂÏÊ...[K]ÄÏÌÃ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí...[K] Äà?..</t>
+  </si>
+  <si>
+    <t>[CN]...[K]ÄÅÌÀÊ, ŒÓÏ ÄÏÌÇÅÎ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï?!.</t>
+  </si>
+  <si>
+    <t>[CN]ÖÂÀÓÉÓ ÎÚÓÛ![K]\n[CN]ÈÀ ÑÀÁÏÓÔ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààààà! Ð-ð-ðñïòóé íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, [CS:N]Äéãìåóó[CR].[K] Üóïãï óú ïó íåîÿ\nöïóåì, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà. Âòæ âåñîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïê ãïìïò ïœåîû ðïäöïäéó,\n[CS:N]Ìàôäñåä[CR]. Ïî òñàáïóàì ëàë îàäï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï óåáå ïãñïíîïå, [CS:N]Ìàôäñåä[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, âàô...[K] Óàë ðïòóôðàóû òï\nòâïéí ïóøïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôâåñåî, œóï ðñàâéìûîï ðïòóôðéì?\nŸ îå šôœô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, ôâåñåî.[K] Íïåíô ïóøô äàâîï\nðïñà âèÿóû òåáÿ â ñôëé é îàœàóû ñàáïóàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åãï îôçîï áúìï òìåãëà ë üóïíô\nðïäóïìëîôóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Î-îô é îô, ëïãäà äåìï ëàòàåóòÿ\nóâïåê òåíûé, óú òóàîïâéšûòÿ òìïâîï\nëñåíåîû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé óú îå ðñïóéâ óàëïãï,\nÿ ñàä œóï ðïíïã óåáå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï![K] Âåñîæíòÿ ë îàšåê\nñàáïóå òóñàçàíé, [CS:N]Ìàôäñåä[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà!</t>
   </si>
 </sst>
 </file>
@@ -930,10 +1435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,21 +2321,916 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8">
         <v>515</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="10" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="4">
+        <v>356</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>359</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>362</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>365</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>368</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>371</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>374</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>377</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
+        <v>380</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>385</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>388</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>393</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>407</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>410</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>421</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
+        <v>424</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4">
+        <v>427</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>437</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8">
+        <v>446</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="4">
+        <v>321</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4">
+        <v>324</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>327</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="4">
+        <v>330</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="4">
+        <v>333</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8">
+        <v>336</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>293</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>296</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>299</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>302</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>83</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>120</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>125</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>147</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>168</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>207</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>210</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>215</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>218</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>223</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>226</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>238</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>241</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>246</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>251</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="368">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1037,6 +1037,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wrooooah![K] We failed to get\nthrough the dungeon! It is a travesty!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It must have been a mistake of\nsome sort!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are off once again![K]\nThis time, we won\'t fail!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ррррааа![K] Мы не смогли пройти\nподземелье! Это издевательство!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, мы совершили\nкакую-то ошибку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы попробуем снова![K] На этот\nраз, у нас всё получится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ññññààà![K] Íú îå òíïãìé ðñïêóé\nðïäèåíåìûå! Üóï éèäåâàóåìûòóâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, íú òïâåñšéìé\nëàëôý-óï ïšéáëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïðñïáôåí òîïâà![K] Îà üóïó\nñàè, ô îàò âòæ ðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/um2304.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/um2307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You have our support too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea! You too!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы поддерживаем вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море! И ты тоже!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïääåñçéâàåí âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå! É óú óïçå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea![K] You agree!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You offer encouragement too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See?![K] Now do your best!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море![K] Ты согласно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты тоже их поддерживаешь!</t>
+  </si>
+  <si>
+    <t>[CN]Ш-Ш-Ш-Ш-ш-ш...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видите?![K] Выложитесь на полную!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå![K] Óú òïãìàòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú óïçå éö ðïääåñçéâàåšû!</t>
+  </si>
+  <si>
+    <t>[CN]Š-Š-Š-Š-š-š...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéóå?![K] Âúìïçéóåòû îà ðïìîôý!</t>
   </si>
 </sst>
 </file>
@@ -2760,10 +2847,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3006,7 +3093,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>108</v>
       </c>
@@ -3020,7 +3107,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>120</v>
       </c>
@@ -3034,7 +3121,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>125</v>
       </c>
@@ -3048,7 +3135,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>147</v>
       </c>
@@ -3062,7 +3149,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>168</v>
       </c>
@@ -3076,7 +3163,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>204</v>
       </c>
@@ -3090,7 +3177,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>207</v>
       </c>
@@ -3104,7 +3191,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>210</v>
       </c>
@@ -3118,7 +3205,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>215</v>
       </c>
@@ -3132,7 +3219,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>218</v>
       </c>
@@ -3146,7 +3233,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>223</v>
       </c>
@@ -3160,7 +3247,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>226</v>
       </c>
@@ -3174,7 +3261,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>238</v>
       </c>
@@ -3188,7 +3275,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>241</v>
       </c>
@@ -3202,7 +3289,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>246</v>
       </c>
@@ -3216,18 +3303,154 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8">
         <v>251</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="4">
+        <v>250</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="4">
+        <v>253</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8">
+        <v>256</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="4">
+        <v>194</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>197</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="385">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1124,6 +1124,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Âéäéóå?![K] Âúìïçéóåòû îà ðïìîôý!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] Do I know the grand\nmaster of all things bad?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Of course![K] You think that we\nare ignorant of such things?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]What?[K] You wish to know\nwhat we know?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Before the graduation exam?[K]\nWe should tell you that, of all things?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nooooooo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Знаем ли мы Гранд мастера\nвсего самого плохого?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну конечно![K] Думаете, что мы не\nможем знать о таких вещах?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Что?[K] Вы желаете знать то,\nчто знаем мы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> До выпускного экзамена?[K] Мы\nдолжны вам об этом сказать?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Неееееет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ухх-ухх..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Èîàåí ìé íú Ãñàîä íàòóåñà\nâòåãï òàíïãï ðìïöïãï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô ëïîåœîï![K] Äôíàåóå, œóï íú îå\níïçåí èîàóû ï óàëéö âåþàö?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Œóï?[K] Âú çåìàåóå èîàóû óï,\nœóï èîàåí íú?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äï âúðôòëîïãï üëèàíåîà?[K] Íú\näïìçîú âàí ïá üóïí òëàèàóû?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îååååååó!</t>
   </si>
 </sst>
 </file>
@@ -2847,9 +2898,9 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3384,7 +3435,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="B37" s="4">
         <v>197</v>
       </c>
@@ -3399,6 +3453,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>207</v>
+      </c>
       <c r="C38" s="5" t="s">
         <v>357</v>
       </c>
@@ -3410,6 +3467,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>210</v>
+      </c>
       <c r="C39" s="5" t="s">
         <v>358</v>
       </c>
@@ -3421,6 +3481,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>215</v>
+      </c>
       <c r="C40" s="5" t="s">
         <v>180</v>
       </c>
@@ -3432,6 +3495,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>220</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>181</v>
       </c>
@@ -3443,14 +3509,102 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8">
+        <v>231</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="10" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>137</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>146</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>157</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>174</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="402">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1175,6 +1175,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Îååååååó!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are testing to see how close\nwe can get to the sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are weak against water.[K]\nBut we seek to overcome that shortcoming!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That will shape us into a hero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea! Come![K] We dare you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sea, hear me! Teach me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пытаемся понять, насколько\nблизко мы сможем подобраться к морю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы слабы против воды.[K] Но мы\nжаждем преодолеть эту слабость!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно так мы станем героями!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море! Давай![K] Мы бросаем тебе\nвызов!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О море, услышь меня! Обучи меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðúóàåíòÿ ðïîÿóû, îàòëïìûëï\náìéèëï íú òíïçåí ðïäïáñàóûòÿ ë íïñý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òìàáú ðñïóéâ âïäú.[K] Îï íú\nçàçäåí ðñåïäïìåóû üóô òìàáïòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï óàë íú òóàîåí ãåñïÿíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå! Äàâàê![K] Íú áñïòàåí óåáå\nâúèïâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï íïñå, ôòìúšû íåîÿ! Ïáôœé íåîÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us3102.ssb</t>
   </si>
 </sst>
 </file>
@@ -2898,10 +2949,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,17 +3645,94 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8">
         <v>174</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="10" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="4">
+        <v>74</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="4">
+        <v>77</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>80</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>96</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Дагтрио.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="421">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1226,6 +1226,63 @@
   </si>
   <si>
     <t>SCRIPT/D01P11A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwah![K] Gwargh![K] Gwagagah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We thought we were a goner!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While training here...[K]the waves\ncarried us off!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For months, we drifted on the\nwaves, cut off from all contact…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...In all truth, that is really an\nexaggeration.[K] We were merely splashed by\nwaves on the shore…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While we floundered...[K]we were\nthankfully rescued by these kindly strangers.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гвах![K] Гвааарх![K] Гвагахах!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы думали, нам конец!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы тренировались здесь...[K]\nИ волны унесли нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Месяцами мы дрейфовали по волнам,\nотрезанными от всех...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...По правде говоря, это несколько\nпреувеличено.[K] Нас лишь немножечко\nнамочило пляжной волной...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока мы барахтались...[K] Нас спасли\nэти добрые незнакомцы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãâàö![K] Ãâàààñö![K] Ãâàãàöàö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äôíàìé, îàí ëïîåø!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óñåîéñïâàìéòû èäåòû...[K]\nÉ âïìîú ôîåòìé îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íåòÿøàíé íú äñåêõïâàìé ðï âïìîàí,\nïóñåèàîîúíé ïó âòåö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ðï ðñàâäå ãïâïñÿ, üóï îåòëïìûëï\nðñåôâåìéœåîï.[K] Îàò ìéšû îåíîïçåœëï\nîàíïœéìï ðìÿçîïê âïìîïê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà íú áàñàöóàìéòû...[K] Îàò òðàòìé\nüóé äïáñúå îåèîàëïíøú.</t>
   </si>
 </sst>
 </file>
@@ -2949,10 +3006,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3722,17 +3779,105 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8">
         <v>96</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="10" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B54" s="4">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>36</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>39</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>42</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>46</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
